--- a/Output_testing/R1_201907/Country/HKD/MN/SRI LANKA_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/SRI LANKA_201907_HKD_MN.xlsx
@@ -810,136 +810,435 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>680.272925</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>17.0445446838136</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>811.47951</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>19.97672648906928</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>927.201388</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>22.75805422140126</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>429.766695</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>19.23690934276717</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>-12.97882785145442</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>655</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>KNITTED OR CROCHETED FABRICS (INCLUDING TUBULAR KNIT FABRICS, N.E.S., PILE FABRICS AND OPEN-WORK FABRICS), N.E.S.</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>837.644254</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>20.98755424735257</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>704.282438</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>17.33778544202662</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>725.707412</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>17.81240714791594</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>349.331674</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>15.63653447667715</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>-22.8297574884671</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>628.962991</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>15.75895116590823</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>600.178732</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>14.774995826722</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>571.745921</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>14.0334395950915</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>285.690038</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>12.78785309582379</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>-10.22918885045857</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>716</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>ROTATING ELECTRIC PLANT AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>2.256592</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>0.05653992943661001</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>5.48662</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>0.135067744457845</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>6.289356</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>0.1543715386087141</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>137.355008</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>6.148186603131401</v>
+      </c>
+      <c r="K21" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>177.934874</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>4.458238449959982</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>159.971805</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>3.938131468590902</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>176.172571</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>4.324136023771421</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>109.815047</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>4.915462571176474</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>21.37151465981921</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>187.107419</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>4.688060698312421</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>169.058274</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>4.161819070961056</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>146.181917</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>3.588018780310948</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>105.391302</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>4.717450062272033</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>35.95182419126981</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>652</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>COTTON FABRICS, WOVEN (NOT INCLUDING NARROW OR SPECIAL FABRICS)</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>251.83176</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>6.309758228468996</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>207.872534</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>5.117335317940134</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>185.232418</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>4.54650895367864</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>77.86659400000001</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>3.485408774190978</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>-34.48286948269484</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>131.804356</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>3.302417533908578</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>132.814686</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>3.269586752663193</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>119.787632</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>2.940174011160195</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>63.813418</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>2.856370563843032</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>-11.85936474959014</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>714</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>ENGINES AND MOTORS, NON-ELECTRIC (OTHER THAN THOSE OF GROUPS 712, 713 AND 718); PARTS, N.E.S. OF THESE ENGINES AND MOTORS</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>24.831275</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>0.6221587847165364</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>161.600011</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>3.978214089937511</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>103.497311</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>2.54032990673999</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>58.099974</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>2.600629470962447</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>35.02997213523966</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>121.94308</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>3.05533881999178</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>122.78703</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>3.02272932894528</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>120.768</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>2.964237033918447</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>57.81183</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>2.587731775375165</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>-11.93776571873309</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>946.558009</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>23.7164374581307</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>986.592905</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>24.28760846868618</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>991.584186</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>24.33832278740294</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>559.131926</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>25.02746326378037</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>4.13793556869011</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -971,136 +1270,475 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>10.656871</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>20.74232092739247</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>13.002689</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>25.63886377621443</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>11.089372</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>38.46749716533299</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>5.58556</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>43.60996193704383</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>-17.63824623179302</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="n">
+        <v>11.83336</v>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>23.03221562589704</v>
+      </c>
+      <c r="E32" s="8" t="n">
+        <v>14.237383</v>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>28.07344875100767</v>
+      </c>
+      <c r="G32" s="8" t="n">
+        <v>8.969481999999999</v>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>31.11389205894665</v>
+      </c>
+      <c r="I32" s="8" t="n">
+        <v>3.21366</v>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>25.09105448309575</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>-46.60930741091043</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="n">
+        <v>1.243035</v>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>2.419418504172689</v>
+      </c>
+      <c r="E33" s="8" t="n">
+        <v>2.271615</v>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>4.479198690132891</v>
+      </c>
+      <c r="G33" s="8" t="n">
+        <v>2.428407</v>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>8.423807893609736</v>
+      </c>
+      <c r="I33" s="8" t="n">
+        <v>1.801291</v>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>14.06380594739644</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>25.95365989754721</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="n">
+        <v>1.610058</v>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>3.133784742980906</v>
+      </c>
+      <c r="E34" s="8" t="n">
+        <v>1.225207</v>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>2.41587839028253</v>
+      </c>
+      <c r="G34" s="8" t="n">
+        <v>0.856092</v>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>2.969664700874337</v>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>3.063236068794864</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>1.086253584559538</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>681</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>SILVER, PLATINUM AND OTHER METALS OF THE PLATINUM GROUP</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="n">
+        <v>1.712402</v>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>3.332985061066116</v>
+      </c>
+      <c r="E35" s="8" t="n">
+        <v>1.145338</v>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>2.2583917034178</v>
+      </c>
+      <c r="G35" s="8" t="n">
+        <v>1.164126</v>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>4.038192027924613</v>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>2.903562315120303</v>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>-52.08499486562364</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>642</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>PAPER AND PAPERBOARD, CUT TO SIZE OR SHAPE, AND ARTICLES OF PAPER OR PAPERBOARD</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>0.3733371004870076</v>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>0.2334428734291827</v>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="n">
+        <v>1.464026118308093</v>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="n">
+        <v>2.289672127346123</v>
+      </c>
+      <c r="K36" s="9" t="n">
+        <v>-43.14564830916751</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>658</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>MADE-UP ARTICLES, WHOLLY OR CHIEFLY OF TEXTILE MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="n">
+        <v>1.629522</v>
+      </c>
+      <c r="D37" s="9" t="n">
+        <v>3.171669083940909</v>
+      </c>
+      <c r="E37" s="8" t="n">
+        <v>1.626038</v>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>3.206241937875171</v>
+      </c>
+      <c r="G37" s="8" t="n">
+        <v>0.7294079999999999</v>
+      </c>
+      <c r="H37" s="9" t="n">
+        <v>2.530215432611622</v>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="n">
+        <v>1.240889379138383</v>
+      </c>
+      <c r="K37" s="9" t="n">
+        <v>-56.40188620758708</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>737</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>METALWORKING MACHINERY (OTHER THAN MACHINE-TOOLS), AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="n">
+        <v>1.237321294182671</v>
+      </c>
+      <c r="K38" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>MANUFACTURES OF LEATHER OR OF COMPOSITION LEATHER, N.E.S.; SADDLERY AND HARNESS</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="n">
+        <v>0.642039</v>
+      </c>
+      <c r="D39" s="9" t="n">
+        <v>1.249651889931119</v>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="n">
+        <v>0.897143106041923</v>
+      </c>
+      <c r="G39" s="8" t="n">
+        <v>0.504852</v>
+      </c>
+      <c r="H39" s="9" t="n">
+        <v>1.75126173771722</v>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="n">
+        <v>1.197057368325759</v>
+      </c>
+      <c r="K39" s="9" t="n">
+        <v>-47.99943020136277</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>PETROLEUM OILS AND OILS OBTAINED FROM BITUMINOUS MINERALS; PREPARATIONS, N.E.S., CONTAINING BY WEIGHT 70% OR MORE OF PETROLEUM OILS OR OF OILS FROM BITUMINOUS MINERALS</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="n">
+        <v>0.6666973875043053</v>
+      </c>
+      <c r="G40" s="8" t="n">
+        <v>1.573328</v>
+      </c>
+      <c r="H40" s="9" t="n">
+        <v>5.457657149578806</v>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="n">
+        <v>1.178475219103449</v>
+      </c>
+      <c r="K40" s="9" t="n">
+        <v>-71.99964382509586</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="n">
+        <v>21.85833</v>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>42.54461706413174</v>
+      </c>
+      <c r="E41" s="8" t="n">
+        <v>16.295005</v>
+      </c>
+      <c r="F41" s="9" t="n">
+        <v>32.13069338409409</v>
+      </c>
+      <c r="G41" s="8" t="n">
+        <v>1.090786</v>
+      </c>
+      <c r="H41" s="9" t="n">
+        <v>3.783785715095942</v>
+      </c>
+      <c r="I41" s="8" t="n">
+        <v>0.528325</v>
+      </c>
+      <c r="J41" s="9" t="n">
+        <v>4.124963860452432</v>
+      </c>
+      <c r="K41" s="9" t="n">
+        <v>-67.22165315908627</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1132,136 +1770,435 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>680.272925</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>17.26681777171015</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>811.47951</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>20.22928481755395</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>927.201388</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>22.9202326538266</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>429.766695</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>19.34783086928714</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>-12.97882785145442</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>655</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>KNITTED OR CROCHETED FABRICS (INCLUDING TUBULAR KNIT FABRICS, N.E.S., PILE FABRICS AND OPEN-WORK FABRICS), N.E.S.</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>837.644254</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>21.2612470080859</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>704.282438</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>17.55698061963793</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>725.707412</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>17.93934191311456</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>349.331674</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>15.72669595962282</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>-22.8297574884671</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>617.129631</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>15.66410258059253</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>585.9413489999999</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>14.60686842888095</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>562.776439</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>13.91172088492609</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>282.476378</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>12.71691187264481</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>-9.527844530459861</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>716</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>ROTATING ELECTRIC PLANT AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>2.256592</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>0.05727725066979397</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>5.48662</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>0.1367753557519744</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>6.289356</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>0.155471620975119</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>137.355008</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>6.183637528807536</v>
+      </c>
+      <c r="K47" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>176.324816</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>4.475510276264959</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>158.746598</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>3.957376748501931</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>175.316479</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>4.333788256505184</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>109.422708</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>4.926142654314786</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>21.45890670242101</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>187.107419</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>4.749196372335438</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>169.058274</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>4.214435402700526</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>146.181917</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>3.613587717604204</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>105.351585</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>4.742863214170955</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>35.90059037501614</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>652</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>COTTON FABRICS, WOVEN (NOT INCLUDING NARROW OR SPECIAL FABRICS)</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>251.83176</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>6.392042001449704</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>207.872534</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>5.182031886464598</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>185.232418</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>4.578908283073945</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>77.86659400000001</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>3.505505914271577</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>-34.05257424591003</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>130.561321</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>3.313932474588421</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>130.543071</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>3.254294078500106</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>117.359225</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>2.90109654265615</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>62.012127</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>2.791747613296919</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>-12.62134416143336</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>714</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>ENGINES AND MOTORS, NON-ELECTRIC (OTHER THAN THOSE OF GROUPS 712, 713 AND 718); PARTS, N.E.S. OF THESE ENGINES AND MOTORS</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>24.831275</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>0.6302721815133565</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>161.600011</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>4.02850917214022</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>103.497311</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>2.558432804206983</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>58.099974</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>2.615624904256437</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>35.02997213523966</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>699</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>MANUFACTURES OF BASE METAL, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>81.27155999999999</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>2.06285031341297</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>105.091894</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>2.619824443555191</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>117.933616</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>2.915295373163362</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>56.622444</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>2.549107417264342</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>-13.61333974599207</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>950.538554</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>24.12675176937678</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>971.307483</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>24.21361904631263</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>977.84465</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>24.1721239499478</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>552.960328</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>24.89393205206267</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>4.944031951491223</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1293,136 +2230,433 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>074</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>TEA AND MATE</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>141.495777</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>14.75738282480232</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>172.396934</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>15.9913303556959</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>175.659548</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>16.86538270643076</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>99.61588</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>15.9072426002653</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>-7.80261309418453</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>117.195527</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>12.22297438101955</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>110.951989</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>10.29177183464607</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>117.457999</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>11.27734943885067</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>60.573615</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>9.672746844981637</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>-5.443854820693328</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>714</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>ENGINES AND MOTORS, NON-ELECTRIC (OTHER THAN THOSE OF GROUPS 712, 713 AND 718); PARTS, N.E.S. OF THESE ENGINES AND MOTORS</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>27.035103</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>2.81964149840996</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>37.307631</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>3.460610570425814</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>70.06857100000001</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>6.72740695887317</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>58.107815</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>9.278993571871625</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>20.84415195358229</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>11.72863</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>1.223244160286573</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>27.282034</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>2.530648361004655</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>48.704045</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>4.676161174433999</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>56.682364</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>9.051369272695723</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>138.950603744564</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>036</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>CRUSTACEANS, MOLLUSCS &amp; AQUATIC INVERTEBRATES; CRUSTACEANS, IN SHELL, COOKED BY BOILING IN WATER; FLOURS, MEALS &amp; PELLETS OF CRUSTACEANS, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>61.058085</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>6.36808782564811</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>62.708133</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>5.816730306769354</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>80.391615</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>7.718540601977637</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>50.705243</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>8.096907857526372</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>18.87205925227406</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>841</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>MEN'S OR BOYS' COATS, JACKETS, SUITS, BLAZERS, TROUSERS, SHORTS, SHIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v>54.19815</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>5.652626989327459</v>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>56.373242</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>5.229113506413004</v>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>59.319845</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>5.695402836919249</v>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>38.74437</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>6.186926150573995</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>7.660069743852405</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>842</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>WOMEN'S OR GIRLS' COATS, CAPES, JACKETS, SUITS, TROUSERS, SHORTS, SHIRTS, DRESSES AND SKIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES, OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="n">
+        <v>44.414783</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>4.632265143937984</v>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>44.194808</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>4.099456749819878</v>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>52.586693</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>5.048941049937026</v>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>32.016722</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>5.112616222626868</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>6.624624777437438</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>035</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>FISH, DRIED, SALTED OR IN BRINE; SMOKED FISH; FLOURS, MEALS AND PELLETS OF FISH, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="n">
+        <v>28.784487</v>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>3.002094501198757</v>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>28.998668</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>2.689881247326286</v>
+      </c>
+      <c r="G64" s="8" t="n">
+        <v>39.011649</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>3.745577156978377</v>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v>25.625501</v>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>4.092028913064274</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>22.22383700271133</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>843</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>MEN'S OR BOYS' COATS, CAPES, JACKETS, SUITS, BLAZERS, TROUSERS, SHORTS, SHIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES OF TEXTILE FABRICS, KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="n">
+        <v>42.892529</v>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>4.47350079413985</v>
+      </c>
+      <c r="E65" s="8" t="n">
+        <v>34.962652</v>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>3.243093164541036</v>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>32.683722</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>3.138021736231443</v>
+      </c>
+      <c r="I65" s="8" t="n">
+        <v>24.8929</v>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>3.975042928137001</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>23.37002284235405</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>844</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>WOMEN'S OR GIRLS' COATS, CAPES, JACKETS, SUITS, TROUSERS, SHORTS, SHIRTS, DRESSES AND SKIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES, OF TEXTILE FABRICS, KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="n">
+        <v>42.40525</v>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>4.422679752707024</v>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>56.205704</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>5.213572884877748</v>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>46.168298</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>4.432699637110201</v>
+      </c>
+      <c r="I66" s="8" t="n">
+        <v>21.585566</v>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>3.44690861563476</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>-12.05316355849197</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>387.605167</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>40.42550212852241</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>446.683195</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>41.43379101848025</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>319.487072</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>30.67451670225748</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>157.679739</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>25.17921702262244</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-20.52985356331209</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
